--- a/testCases/m1721.xlsx
+++ b/testCases/m1721.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
   <si>
     <t>Case ID</t>
   </si>
@@ -112,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,18 @@
       <color indexed="17"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -209,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +247,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -561,7 +575,7 @@
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="13">
+      <c r="E2" t="s" s="15">
         <v>20</v>
       </c>
     </row>
@@ -578,7 +592,7 @@
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="13">
+      <c r="E3" t="s" s="15">
         <v>20</v>
       </c>
     </row>
@@ -595,7 +609,7 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="13">
+      <c r="E4" t="s" s="15">
         <v>20</v>
       </c>
     </row>
@@ -612,7 +626,7 @@
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
     </row>
@@ -629,7 +643,7 @@
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s" s="13">
+      <c r="E6" t="s" s="15">
         <v>20</v>
       </c>
     </row>
@@ -646,7 +660,7 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s" s="13">
+      <c r="E7" t="s" s="15">
         <v>20</v>
       </c>
     </row>
@@ -663,7 +677,7 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s" s="13">
+      <c r="E8" t="s" s="15">
         <v>20</v>
       </c>
     </row>

--- a/testCases/m1721.xlsx
+++ b/testCases/m1721.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
   <si>
     <t>Case ID</t>
   </si>
@@ -112,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,18 @@
       <color indexed="17"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -221,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,6 +261,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -575,7 +589,7 @@
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="15">
+      <c r="E2" t="s" s="17">
         <v>20</v>
       </c>
     </row>
@@ -592,7 +606,7 @@
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="15">
+      <c r="E3" t="s" s="17">
         <v>20</v>
       </c>
     </row>
@@ -609,7 +623,7 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="E4" t="s" s="17">
         <v>20</v>
       </c>
     </row>
@@ -626,7 +640,7 @@
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="15">
+      <c r="E5" t="s" s="17">
         <v>20</v>
       </c>
     </row>
@@ -643,7 +657,7 @@
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="E6" t="s" s="17">
         <v>20</v>
       </c>
     </row>
@@ -660,7 +674,7 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s" s="15">
+      <c r="E7" t="s" s="17">
         <v>20</v>
       </c>
     </row>
@@ -677,7 +691,7 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s" s="15">
+      <c r="E8" t="s" s="17">
         <v>20</v>
       </c>
     </row>
